--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
     <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
     <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
-    <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId6"/>
-    <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId7"/>
+    <sheet name="余分なレコードの制御" sheetId="9" r:id="rId6"/>
+    <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId7"/>
+    <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="機能名" localSheetId="6">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
+    <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
     <definedName name="機能名">'オプション設定（入力規則）'!$C$10</definedName>
-    <definedName name="操作">'オプション設定（入力規則）'!$C$23:$C$26</definedName>
+    <definedName name="操作">'オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -279,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -714,6 +715,142 @@
   </si>
   <si>
     <t>入力規則（レコードの削除）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類別</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力規則（レコードのコピー）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余ったレコードや足りないデータの場合の制御</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足りないレコード（Break）</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足りないレコード（Insert）</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足りないレコード（Copy）</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余分なレコード（None）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余分なレコード（Clear）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余分なレコード（Delete）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余分なレコード（Delete）（データなし）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力規則（レコードの削除）（データなし）</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
@@ -838,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -887,12 +1024,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -909,9 +1074,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -936,6 +1125,7 @@
       <sheetName val="カラムの設定"/>
       <sheetName val="マップカラムの設定"/>
       <sheetName val="レコードの設定"/>
+      <sheetName val="余分なレコードの制御"/>
       <sheetName val="オプション設定（入力規則）"/>
       <sheetName val="オプション指定（コメント）"/>
     </sheetNames>
@@ -945,14 +1135,15 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
         <row r="13">
           <cell r="C13" t="str">
             <v>参照形式</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1576,10 +1767,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -1672,7 +1863,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1752,7 +1943,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1815,10 +2006,353 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C41:D41"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1827,17 +2361,21 @@
     <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1847,18 +2385,26 @@
       <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1866,16 +2412,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -1885,104 +2435,213 @@
       <c r="C13" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="10">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="10">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="10">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="10">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="10">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="10">
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D21:E21"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>機能名</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B14:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B38 B14:B18 B23:B25">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38 C14:C18 C23:C25">
       <formula1>操作</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E5 D14:E18 D38:E38 D23:E25">
+      <formula1>"レ,-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="余分なレコードの制御" sheetId="9" r:id="rId6"/>
     <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId7"/>
     <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId8"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -280,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -860,6 +861,32 @@
     <rPh sb="10" eb="12">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@HorizontalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1075,30 +1102,30 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1767,10 +1794,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -2035,162 +2062,162 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2198,20 +2225,20 @@
       <c r="A35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="10"/>
@@ -2220,10 +2247,10 @@
       <c r="A37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="10" t="s">
         <v>77</v>
       </c>
@@ -2232,104 +2259,104 @@
       <c r="A38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="27"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="10"/>
     </row>
   </sheetData>
@@ -2351,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2370,10 +2397,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -2385,10 +2412,10 @@
       <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2396,8 +2423,8 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -2420,10 +2447,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -2435,10 +2462,10 @@
       <c r="C13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2446,36 +2473,36 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
@@ -2487,10 +2514,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -2502,10 +2529,10 @@
       <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2513,22 +2540,22 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
@@ -2582,10 +2609,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
@@ -2597,10 +2624,10 @@
       <c r="C37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2608,8 +2635,8 @@
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2781,4 +2808,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42096</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -15,10 +15,11 @@
     <sheet name="余分なレコードの制御" sheetId="9" r:id="rId6"/>
     <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId7"/>
     <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId8"/>
-    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId9"/>
+    <sheet name="データの開始位置" sheetId="11" r:id="rId9"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -887,6 +888,52 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの開始位置が離れている</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -976,7 +1023,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,8 +1048,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1079,12 +1138,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1117,6 +1213,11 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,6 +1227,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1592,6 +1708,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42096</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
@@ -1794,10 +1984,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -2062,10 +2252,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2097,10 +2287,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -2126,10 +2316,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -2155,10 +2345,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -2202,10 +2392,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -2269,10 +2459,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -2316,10 +2506,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="27"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -2397,10 +2587,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -2447,10 +2637,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -2514,10 +2704,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -2609,10 +2799,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
@@ -2668,9 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2812,74 +3000,110 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>83</v>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+      <c r="D5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9">
-        <v>42095</v>
-      </c>
-      <c r="E10" s="9">
-        <v>42096</v>
-      </c>
-      <c r="F10" s="9">
-        <v>42097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="余分なレコードの制御" sheetId="9" r:id="rId6"/>
     <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId7"/>
     <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId8"/>
-    <sheet name="データの開始位置" sheetId="11" r:id="rId9"/>
-    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId10"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId9"/>
+    <sheet name="データの開始位置" sheetId="11" r:id="rId10"/>
+    <sheet name="正規表現で一致" sheetId="12" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -282,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -934,6 +935,132 @@
   </si>
   <si>
     <t>見出しが結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@HorizontalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（通常）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 測定結果
+[タイトルが正規表現]  </t>
+    <rPh sb="1" eb="3">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（見出しが正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前
+（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果（終端が正規表現）</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 【合計】 </t>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1180,7 +1307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1218,6 +1345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,6 +1372,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1710,75 +1849,281 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>83</v>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+      <c r="D5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="18"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9">
-        <v>42095</v>
-      </c>
-      <c r="E10" s="9">
-        <v>42096</v>
-      </c>
-      <c r="F10" s="9">
-        <v>42097</v>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="38" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="18"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B21" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="18"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="18"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="40"/>
+      <c r="C24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="26">
+        <f>SUM(D22:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <f>SUM(E22:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <f>SUM(F22:F23)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1984,10 +2329,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -2252,10 +2597,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2287,10 +2632,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -2316,10 +2661,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -2345,10 +2690,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -2392,10 +2737,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -2459,10 +2804,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="30"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -2506,10 +2851,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="30"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -2587,10 +2932,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -2637,10 +2982,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -2704,10 +3049,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -2799,10 +3144,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="31"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
@@ -3000,110 +3345,74 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>87</v>
+      <c r="A4" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>13</v>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="18"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="26"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42096</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42097</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="26"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1060,6 +1060,35 @@
     <t xml:space="preserve"> 【合計】 </t>
     <rPh sb="2" eb="4">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム（終了条件がある）</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考
+（オプション）</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1307,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1348,6 +1377,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,14 +1412,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1390,6 +1425,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1913,21 +1953,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -1959,29 +1999,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="27" t="s">
         <v>96</v>
       </c>
@@ -1997,23 +2038,27 @@
       <c r="F5" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="18"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="27" t="s">
         <v>102</v>
       </c>
@@ -2029,24 +2074,28 @@
       <c r="F11" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D16" s="27" t="s">
@@ -2058,24 +2107,28 @@
       <c r="F16" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="18"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B21" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -2087,23 +2140,28 @@
       <c r="F21" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="18"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="18"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="40"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="30"/>
       <c r="C24" s="26" t="s">
         <v>106</v>
       </c>
@@ -2119,6 +2177,7 @@
         <f>SUM(F22:F23)</f>
         <v>0</v>
       </c>
+      <c r="G24" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2329,10 +2388,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
@@ -2422,25 +2481,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A11" sqref="A11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -2457,19 +2516,19 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -2486,12 +2545,45 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D12" s="9">
+        <v>42096</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42097</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2597,10 +2689,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2632,10 +2724,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -2661,10 +2753,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -2690,10 +2782,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -2737,10 +2829,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -2804,10 +2896,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -2851,10 +2943,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="31"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -2932,10 +3024,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -2982,10 +3074,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -3049,10 +3141,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -3144,10 +3236,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="32"/>
+      <c r="E36" s="35"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="6075" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
     <sheet name="終了位置の指定" sheetId="2" r:id="rId2"/>
-    <sheet name="カラムの設定" sheetId="3" r:id="rId3"/>
-    <sheet name="マップカラムの設定" sheetId="4" r:id="rId4"/>
-    <sheet name="レコードの設定" sheetId="5" r:id="rId5"/>
-    <sheet name="余分なレコードの制御" sheetId="9" r:id="rId6"/>
-    <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId7"/>
-    <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId8"/>
-    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId9"/>
-    <sheet name="データの開始位置" sheetId="11" r:id="rId10"/>
-    <sheet name="正規表現で一致" sheetId="12" r:id="rId11"/>
+    <sheet name="見出しの空白" sheetId="14" r:id="rId3"/>
+    <sheet name="カラムの設定" sheetId="3" r:id="rId4"/>
+    <sheet name="マップカラムの設定" sheetId="4" r:id="rId5"/>
+    <sheet name="レコードの設定" sheetId="5" r:id="rId6"/>
+    <sheet name="余分なレコードの制御" sheetId="9" r:id="rId7"/>
+    <sheet name="オプション設定（入力規則）" sheetId="6" r:id="rId8"/>
+    <sheet name="オプション指定（コメント）" sheetId="8" r:id="rId9"/>
+    <sheet name="メソッドにアノテーションを設定" sheetId="10" r:id="rId10"/>
+    <sheet name="データの開始位置" sheetId="11" r:id="rId11"/>
+    <sheet name="正規表現で一致" sheetId="12" r:id="rId12"/>
+    <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="機能名" localSheetId="7">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
+    <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
     <definedName name="機能名">'オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
@@ -283,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="134">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1089,6 +1091,200 @@
 （オプション）</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（大分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（中分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが結合している表</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中分類</t>
+    <rPh sb="0" eb="3">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の表</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のレコードがある表</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対1のネスト</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿（集合）</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白がある</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※属性rangeの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しに空白なし</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始位置がずれている</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1097,10 +1293,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,8 +1375,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,6 +1425,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1386,6 +1610,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,12 +1664,23 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1889,11 +2152,83 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42096</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1953,21 +2288,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -1997,11 +2332,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2038,7 +2373,7 @@
       <c r="F5" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2074,7 +2409,7 @@
       <c r="F11" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2091,7 +2426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
@@ -2107,7 +2442,7 @@
       <c r="F16" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2124,7 +2459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="27" t="s">
         <v>102</v>
       </c>
@@ -2140,7 +2475,7 @@
       <c r="F21" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2183,6 +2518,746 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="35">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35">
+        <v>21</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35">
+        <v>41</v>
+      </c>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="35">
+        <v>2</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35">
+        <v>22</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35">
+        <v>42</v>
+      </c>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="35">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35">
+        <v>23</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35">
+        <v>43</v>
+      </c>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="35">
+        <v>4</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35">
+        <v>24</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35">
+        <v>44</v>
+      </c>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="35">
+        <v>5</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35">
+        <v>25</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35">
+        <v>45</v>
+      </c>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="35">
+        <v>6</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35">
+        <v>26</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35">
+        <v>46</v>
+      </c>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="35">
+        <v>7</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35">
+        <v>27</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35">
+        <v>47</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="35">
+        <v>8</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35">
+        <v>28</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35">
+        <v>48</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="35">
+        <v>9</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35">
+        <v>29</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35">
+        <v>49</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="35">
+        <v>10</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35">
+        <v>30</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35">
+        <v>50</v>
+      </c>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="35">
+        <v>11</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35">
+        <v>31</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35">
+        <v>51</v>
+      </c>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="35">
+        <v>12</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35">
+        <v>32</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35">
+        <v>52</v>
+      </c>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="35">
+        <v>13</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35">
+        <v>33</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
+        <v>53</v>
+      </c>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="35">
+        <v>14</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35">
+        <v>34</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35">
+        <v>54</v>
+      </c>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="35">
+        <v>15</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35">
+        <v>35</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35">
+        <v>55</v>
+      </c>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="35">
+        <v>16</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35">
+        <v>36</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35">
+        <v>56</v>
+      </c>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="35">
+        <v>17</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35">
+        <v>37</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35">
+        <v>57</v>
+      </c>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="35">
+        <v>18</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35">
+        <v>38</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35">
+        <v>58</v>
+      </c>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="35">
+        <v>19</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35">
+        <v>39</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <v>59</v>
+      </c>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="35">
+        <v>20</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35">
+        <v>40</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35">
+        <v>60</v>
+      </c>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="35">
+        <v>1</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35">
+        <v>21</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35">
+        <v>41</v>
+      </c>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="35">
+        <v>2</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35">
+        <v>22</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35">
+        <v>42</v>
+      </c>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="35">
+        <v>3</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35">
+        <v>23</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35">
+        <v>43</v>
+      </c>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="35">
+        <v>4</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35">
+        <v>24</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35">
+        <v>44</v>
+      </c>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="35">
+        <v>5</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35">
+        <v>25</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35">
+        <v>45</v>
+      </c>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="35">
+        <v>6</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35">
+        <v>26</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35">
+        <v>46</v>
+      </c>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="35">
+        <v>7</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35">
+        <v>27</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35">
+        <v>47</v>
+      </c>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="35">
+        <v>8</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35">
+        <v>28</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35">
+        <v>48</v>
+      </c>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="35">
+        <v>9</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35">
+        <v>29</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35">
+        <v>49</v>
+      </c>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="35">
+        <v>10</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35">
+        <v>30</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35">
+        <v>50</v>
+      </c>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="35">
+        <v>11</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35">
+        <v>31</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35">
+        <v>51</v>
+      </c>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="35">
+        <v>12</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35">
+        <v>32</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35">
+        <v>52</v>
+      </c>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="35">
+        <v>13</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35">
+        <v>33</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35">
+        <v>53</v>
+      </c>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="35">
+        <v>14</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35">
+        <v>34</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35">
+        <v>54</v>
+      </c>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="35">
+        <v>15</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35">
+        <v>35</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35">
+        <v>55</v>
+      </c>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="35">
+        <v>16</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35">
+        <v>36</v>
+      </c>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35">
+        <v>56</v>
+      </c>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="35">
+        <v>17</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35">
+        <v>37</v>
+      </c>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35">
+        <v>57</v>
+      </c>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="35">
+        <v>18</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35">
+        <v>38</v>
+      </c>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35">
+        <v>58</v>
+      </c>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="35">
+        <v>19</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35">
+        <v>39</v>
+      </c>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35">
+        <v>59</v>
+      </c>
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="35">
+        <v>20</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35">
+        <v>40</v>
+      </c>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35">
+        <v>60</v>
+      </c>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="10"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F58:H58"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2191,7 +3266,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2335,10 +3410,142 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2388,16 +3595,20 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
@@ -2479,12 +3690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2592,12 +3803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2631,26 +3842,47 @@
       <c r="B5" s="7"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2658,7 +3890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -2689,10 +3921,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -2724,10 +3956,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -2753,10 +3985,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -2782,10 +4014,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -2829,10 +4061,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -2896,10 +4128,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -2943,10 +4175,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -3001,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -3024,10 +4256,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -3074,10 +4306,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -3141,10 +4373,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -3236,10 +4468,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="35"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
@@ -3291,7 +4523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -3433,78 +4665,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9">
-        <v>42095</v>
-      </c>
-      <c r="E10" s="9">
-        <v>42096</v>
-      </c>
-      <c r="F10" s="9">
-        <v>42097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="データの開始位置" sheetId="11" r:id="rId11"/>
     <sheet name="正規表現で一致" sheetId="12" r:id="rId12"/>
     <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
+    <sheet name="数式を指定" sheetId="15" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1285,6 +1286,37 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@HorizontalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席可能数</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1560,7 +1592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1638,6 +1670,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1679,8 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2288,21 +2321,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -2886,18 +2919,18 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="55" t="s">
+      <c r="E34" s="58"/>
+      <c r="F34" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="36" t="s">
@@ -3211,11 +3244,11 @@
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="8" t="s">
@@ -3255,6 +3288,112 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F58:H58"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="18"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="60">
+        <v>42095</v>
+      </c>
+      <c r="E12" s="60">
+        <v>42096</v>
+      </c>
+      <c r="F12" s="60">
+        <v>42097</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,7 +3551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3463,10 +3602,10 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="8" t="s">
         <v>133</v>
       </c>
@@ -3595,10 +3734,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3921,10 +4060,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -3956,10 +4095,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -3985,10 +4124,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -4014,10 +4153,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -4061,10 +4200,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -4128,10 +4267,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -4175,10 +4314,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -4256,10 +4395,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -4306,10 +4445,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -4373,10 +4512,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -4468,10 +4607,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="正規表現で一致" sheetId="12" r:id="rId12"/>
     <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
     <sheet name="数式を指定" sheetId="15" r:id="rId14"/>
+    <sheet name="余分なレコードの制御と終端の判定" sheetId="16" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -286,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="140">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1317,6 +1318,35 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の直後に文字がある場合</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※足りない場合は追加してください。</t>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1592,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1671,6 +1701,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1713,7 +1746,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2321,21 +2353,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -2919,18 +2951,18 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="57" t="s">
+      <c r="E34" s="61"/>
+      <c r="F34" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="58"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="36" t="s">
@@ -3244,11 +3276,11 @@
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="8" t="s">
@@ -3298,9 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3320,21 +3350,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
@@ -3364,16 +3394,16 @@
       <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="44">
         <v>42095</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="44">
         <v>42096</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="44">
         <v>42097</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="44" t="s">
         <v>137</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -3394,6 +3424,382 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="51"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,10 +4008,10 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="8" t="s">
         <v>133</v>
       </c>
@@ -3734,10 +4140,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4033,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4060,10 +4466,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -4095,10 +4501,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -4124,10 +4530,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -4153,10 +4559,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -4200,10 +4606,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -4267,10 +4673,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -4314,10 +4720,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -4395,10 +4801,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -4445,10 +4851,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -4512,10 +4918,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -4607,10 +5013,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="ネストした表" sheetId="13" r:id="rId13"/>
     <sheet name="数式を指定" sheetId="15" r:id="rId14"/>
     <sheet name="余分なレコードの制御と終端の判定" sheetId="16" r:id="rId15"/>
+    <sheet name="結合セルの補正" sheetId="17" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -287,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="146">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1347,6 +1348,78 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入する表</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入より下にある表</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入より上にある表</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除より上にある表</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除する表</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除より下にある表</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1622,7 +1695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1703,6 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2353,21 +2427,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -2951,18 +3025,18 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60" t="s">
+      <c r="C34" s="60"/>
+      <c r="D34" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="60" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="61"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="36" t="s">
@@ -3276,11 +3350,11 @@
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="8" t="s">
@@ -3350,21 +3424,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
@@ -3434,7 +3508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -3459,10 +3533,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -3499,10 +3573,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -3533,10 +3607,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -3567,10 +3641,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -3619,10 +3693,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -3691,10 +3765,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -3743,10 +3817,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -3800,6 +3874,247 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C33:D33"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="46" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14" style="46" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,7 +4273,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4008,10 +4323,10 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="8" t="s">
         <v>133</v>
       </c>
@@ -4090,7 +4405,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4128,6 +4443,10 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -4140,10 +4459,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4439,8 +4758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4466,10 +4785,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -4501,10 +4820,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -4530,10 +4849,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -4559,10 +4878,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -4606,10 +4925,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -4673,10 +4992,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -4720,10 +5039,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -4801,10 +5120,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -4851,10 +5170,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -4918,10 +5237,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="52"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -5013,10 +5332,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="52"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="数式を指定" sheetId="15" r:id="rId14"/>
     <sheet name="余分なレコードの制御と終端の判定" sheetId="16" r:id="rId15"/>
     <sheet name="結合セルの補正" sheetId="17" r:id="rId16"/>
+    <sheet name="独自の開始位置" sheetId="18" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -288,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="151">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1421,6 +1422,29 @@
     <rPh sb="8" eb="9">
       <t>ヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@HorizontalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsRecordFinder」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1526,7 +1550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1572,6 +1596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,7 +1725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1819,6 +1849,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3884,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -4109,12 +4148,181 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C30:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C2" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="18"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="18"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="18"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="18"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="18"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="18"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="18"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="18"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="10155" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="2580" yWindow="1875" windowWidth="14805" windowHeight="10155" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="余分なレコードの制御と終端の判定" sheetId="16" r:id="rId15"/>
     <sheet name="結合セルの補正" sheetId="17" r:id="rId16"/>
     <sheet name="独自の開始位置" sheetId="18" r:id="rId17"/>
+    <sheet name="配列カラムの設定" sheetId="20" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -289,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1445,6 +1446,72 @@
   </si>
   <si>
     <t>クラスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@HorizontalRecords」のテスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsArrayColumns」の指定</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（文字列）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（結合がある）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム（型変換）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カタヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日</t>
+    <rPh sb="0" eb="3">
+      <t>コウホビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1606,7 +1673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1720,12 +1787,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1807,6 +1945,10 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1859,6 +2001,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2466,21 +2633,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -3064,18 +3231,18 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61" t="s">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="61" t="s">
+      <c r="E34" s="66"/>
+      <c r="F34" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="62"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="36" t="s">
@@ -3389,11 +3556,11 @@
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="8" t="s">
@@ -3463,21 +3630,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
@@ -3572,10 +3739,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -3612,10 +3779,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -3646,10 +3813,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -3680,10 +3847,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -3732,10 +3899,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -3804,10 +3971,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -3856,10 +4023,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="52"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -3954,10 +4121,10 @@
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3981,10 +4148,10 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4008,10 +4175,10 @@
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
@@ -4035,10 +4202,10 @@
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
@@ -4076,10 +4243,10 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
@@ -4117,10 +4284,10 @@
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
@@ -4164,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4189,21 +4356,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
@@ -4215,13 +4382,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="18"/>
@@ -4266,13 +4433,13 @@
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="18"/>
@@ -4323,6 +4490,126 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="46"/>
+    <col min="3" max="4" width="12.625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4531,10 +4818,10 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="8" t="s">
         <v>133</v>
       </c>
@@ -4667,10 +4954,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4993,10 +5280,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -5028,10 +5315,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -5057,10 +5344,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -5086,10 +5373,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -5133,10 +5420,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -5200,10 +5487,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -5247,10 +5534,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="52"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -5328,10 +5615,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -5378,10 +5665,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -5445,10 +5732,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -5540,10 +5827,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1875" windowWidth="14805" windowHeight="10155" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="2580" yWindow="1875" windowWidth="14805" windowHeight="10155" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="機能名">'オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="161">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1514,11 +1514,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マップカラム（optionalの確認）</t>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1949,6 +1956,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2023,9 +2033,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2041,6 +2048,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2080,7 +2090,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2122,7 +2132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2155,9 +2165,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,6 +2217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2633,21 +2677,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="25" t="s">
         <v>89</v>
       </c>
@@ -3231,18 +3275,18 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65" t="s">
+      <c r="C34" s="67"/>
+      <c r="D34" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="65" t="s">
+      <c r="E34" s="69"/>
+      <c r="F34" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="66"/>
+      <c r="G34" s="69"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="36" t="s">
@@ -3556,11 +3600,11 @@
       <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="67" t="s">
+      <c r="F58" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="8" t="s">
@@ -3630,21 +3674,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
@@ -3739,10 +3783,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -3779,10 +3823,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -3813,10 +3857,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -3847,10 +3891,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="59"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -3899,10 +3943,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -3971,10 +4015,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -4023,10 +4067,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="59"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -4121,10 +4165,10 @@
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4148,10 +4192,10 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4175,10 +4219,10 @@
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
@@ -4202,10 +4246,10 @@
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
@@ -4243,10 +4287,10 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
@@ -4284,10 +4328,10 @@
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
@@ -4356,21 +4400,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="25" t="s">
         <v>89</v>
       </c>
@@ -4382,13 +4426,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="18"/>
@@ -4433,13 +4477,13 @@
       <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="18"/>
@@ -4500,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4534,11 +4578,11 @@
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
@@ -4559,24 +4603,24 @@
       <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -4590,18 +4634,18 @@
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4818,10 +4862,10 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="8" t="s">
         <v>133</v>
       </c>
@@ -4954,10 +4998,10 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
@@ -5051,10 +5095,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5154,6 +5198,44 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42096</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42097</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5280,10 +5362,10 @@
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -5315,10 +5397,10 @@
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -5344,10 +5426,10 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -5373,10 +5455,10 @@
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="59"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
@@ -5420,10 +5502,10 @@
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
@@ -5487,10 +5569,10 @@
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -5534,10 +5616,10 @@
       <c r="A49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="59"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
@@ -5615,10 +5697,10 @@
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -5665,10 +5747,10 @@
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -5732,10 +5814,10 @@
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -5827,10 +5909,10 @@
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="57"/>
+      <c r="E36" s="60"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54283EC-E33F-41EF-952B-9DE11AE89BC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1875" windowWidth="14805" windowHeight="10155" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="33960" yWindow="480" windowWidth="21615" windowHeight="13860" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -25,26 +26,34 @@
     <sheet name="結合セルの補正" sheetId="17" r:id="rId16"/>
     <sheet name="独自の開始位置" sheetId="18" r:id="rId17"/>
     <sheet name="配列カラムの設定" sheetId="20" r:id="rId18"/>
+    <sheet name="コメント情報" sheetId="21" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
     <definedName name="機能名">'オプション設定（入力規則）'!$C$10</definedName>
     <definedName name="操作">'オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="165">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1521,11 +1530,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報の取得</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常のカラム</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップカラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列カラム</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -2409,7 +2446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2540,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2614,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2722,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2911,7 +2948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3651,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3755,7 +3792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4131,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4372,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,11 +4578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4660,8 +4697,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0475C28A-0D6F-4B08-A4F3-16052F02E5B3}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D11" s="9">
+        <v>42096</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4808,7 +4960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4940,7 +5092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5094,10 +5246,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5245,7 +5397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -5675,7 +5827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -5947,16 +6099,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>機能名</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B38 B14:B18 B23:B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B38 B14:B18 B23:B25" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38 C14:C18 C23:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38 C14:C18 C23:C25" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>操作</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E5 D14:E18 D38:E38 D23:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E5 D14:E18 D38:E38 D23:E25" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"レ,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5965,7 +6117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/test/data/anno_HorizonalRecords_template.xlsx
+++ b/src/test/data/anno_HorizonalRecords_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54283EC-E33F-41EF-952B-9DE11AE89BC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542298A-A1A3-4B15-BB59-FC53F0774D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="480" windowWidth="21615" windowHeight="13860" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35610" yWindow="3300" windowWidth="20775" windowHeight="11835" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開始位置の指定" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="独自の開始位置" sheetId="18" r:id="rId17"/>
     <sheet name="配列カラムの設定" sheetId="20" r:id="rId18"/>
     <sheet name="コメント情報" sheetId="21" r:id="rId19"/>
+    <sheet name="メソッドが存在しない" sheetId="22" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="機能名" localSheetId="8">'[1]オプション設定（入力規則）'!$C$12:$C$16</definedName>
@@ -37,13 +38,6 @@
     <definedName name="操作">'オプション設定（入力規則）'!$C$30:$C$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -299,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
   <si>
     <t>アノテーション「@HorizontalRecords」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -1555,6 +1549,23 @@
     <t>配列カラム</t>
     <rPh sb="0" eb="2">
       <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応するアクセッサメソッドが存在しないときのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネストした表</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1907,7 +1918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2069,6 +2080,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4701,7 +4718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0475C28A-0D6F-4B08-A4F3-16052F02E5B3}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
@@ -4954,6 +4971,130 @@
       <c r="G23" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94587B-5208-4DD3-9214-976F10CF368A}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" s="46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D11" s="9">
+        <v>42096</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
